--- a/public/template/Template DSBS.xlsx
+++ b/public/template/Template DSBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfansbom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\siemas\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660CC34F-DAEA-447C-8885-5621A327DA69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4855E558-DAA6-4D4D-B82F-3E864C46F9AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A4248E35-6AB9-4A80-BD22-FFD7242506AB}"/>
   </bookViews>
@@ -71,10 +71,10 @@
     <t>1601010010001</t>
   </si>
   <si>
-    <t>ade.rismansyah</t>
-  </si>
-  <si>
     <t>susenas</t>
+  </si>
+  <si>
+    <t>pcl01@bpssumsel.com</t>
   </si>
 </sst>
 </file>
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -128,6 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +446,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +456,7 @@
     <col min="3" max="3" width="5.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
@@ -508,14 +509,14 @@
       <c r="F2" s="3">
         <v>1001</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H2">
         <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/Template DSBS.xlsx
+++ b/public/template/Template DSBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\siemas\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4855E558-DAA6-4D4D-B82F-3E864C46F9AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01E8A2C-DD6B-4417-9B20-1B48F29CB7FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A4248E35-6AB9-4A80-BD22-FFD7242506AB}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>KD KAB</t>
   </si>
@@ -62,19 +62,16 @@
     <t>01</t>
   </si>
   <si>
-    <t>010</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
-    <t>1601010010001</t>
-  </si>
-  <si>
     <t>susenas</t>
   </si>
   <si>
-    <t>pcl01@bpssumsel.com</t>
+    <t>idris@bps.go.id</t>
+  </si>
+  <si>
+    <t>093</t>
   </si>
 </sst>
 </file>
@@ -128,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +443,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,8 +453,8 @@
     <col min="3" max="3" width="5.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,28 +492,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1601093001001</v>
       </c>
       <c r="F2" s="3">
         <v>1001</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3">
         <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/Template DSBS.xlsx
+++ b/public/template/Template DSBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\siemas\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01E8A2C-DD6B-4417-9B20-1B48F29CB7FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109804EB-3122-4161-8B1D-DAC6670FAA82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A4248E35-6AB9-4A80-BD22-FFD7242506AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ACDFDE3B-C999-4909-91F2-ABE6D6342633}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,55 +30,459 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>KD KAB</t>
-  </si>
-  <si>
-    <t>KD KEC</t>
-  </si>
-  <si>
-    <t>KD DESA</t>
-  </si>
-  <si>
-    <t>NBS</t>
-  </si>
-  <si>
-    <t>ID BS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="140">
+  <si>
+    <t>VSEN22.SEPT-DSBS</t>
+  </si>
+  <si>
+    <t>SURVEI SOSIAL EKONOMI NASIONAL 2022</t>
+  </si>
+  <si>
+    <t>DAFTAR SAMPEL BLOK SENSUS</t>
+  </si>
+  <si>
+    <t>PROVINSI</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMATERA SELATAN         </t>
+  </si>
+  <si>
+    <t>KABUPATEN / KOTA</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALEMBANG                 </t>
+  </si>
+  <si>
+    <t>NO.</t>
+  </si>
+  <si>
+    <t>Kecamatan</t>
+  </si>
+  <si>
+    <t>Desa / Kelurahan / Nagari</t>
+  </si>
+  <si>
+    <t>K / P</t>
+  </si>
+  <si>
+    <t>Nomor Blok Sensus</t>
   </si>
   <si>
     <t>NKS</t>
   </si>
   <si>
-    <t>PENCACAH</t>
-  </si>
-  <si>
-    <t>JUMLAH RT C1</t>
-  </si>
-  <si>
-    <t>SUMBER</t>
-  </si>
-  <si>
-    <t>01</t>
+    <t>Jumlah Ruta SSN Maret 2022</t>
+  </si>
+  <si>
+    <t>SLS pada BS2020 (Awal)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SLS (Relasi BS-SLS Wilkerstat)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SLS yang dituliskan pada DSBS pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>Identifikasi
+1. Digunakan
+2. Usul Diganti</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identitas desa kondisi lapangan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Diisi jika ada perbedaan identitas pada DSBS dengan kondisi lapangan)</t>
+    </r>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILIR BARAT DUA             </t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIGA-PULUH ILIR                             </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>028B</t>
+  </si>
+  <si>
+    <t>250083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[002200] RT 018 RW 006                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANDUS                     </t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARANGANYAR                                 </t>
+  </si>
+  <si>
+    <t>007B</t>
+  </si>
+  <si>
+    <t>250280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[001700] RT 016 RW 006, [002100] RT 032 RW 007                                                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBERANG ULU SATU          </t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMA ULU                                    </t>
+  </si>
+  <si>
+    <t>250440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[005300] RT 060 RW 010                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KERTAPATI                  </t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEMANGAGUNG                                 </t>
+  </si>
+  <si>
+    <t>019B</t>
+  </si>
+  <si>
+    <t>250609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[001200] RT 010 RW 002                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAKABARING                 </t>
   </si>
   <si>
     <t>001</t>
   </si>
   <si>
-    <t>susenas</t>
-  </si>
-  <si>
-    <t>idris@bps.go.id</t>
-  </si>
-  <si>
-    <t>093</t>
+    <t xml:space="preserve">LIMA-BELAS ULU                              </t>
+  </si>
+  <si>
+    <t>029B</t>
+  </si>
+  <si>
+    <t>250769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[004800] RT 063 RW 013                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMBILAN SEPULUH ULU                        </t>
+  </si>
+  <si>
+    <t>031B</t>
+  </si>
+  <si>
+    <t>250970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[000200] RT 002 RW 001                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBERANG ULU DUA           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPAT-BELAS ULU                             </t>
+  </si>
+  <si>
+    <t>034B</t>
+  </si>
+  <si>
+    <t>251160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[001700] RT 015 RW 004, [002100] RT 018 RW 005                                                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAJU                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAJU ILIR                                  </t>
+  </si>
+  <si>
+    <t>018B</t>
+  </si>
+  <si>
+    <t>251327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[001200] RT 012 RW 004, [001500] RT 015 RW 005                                                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILIR BARAT SATU            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUKITLAMA                                   </t>
+  </si>
+  <si>
+    <t>063B</t>
+  </si>
+  <si>
+    <t>251492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[002000] RT 013 RW 005                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRINGAGUNG                                 </t>
+  </si>
+  <si>
+    <t>251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[000100] RT 001 RW 001                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILIR TIMUR SATU            </t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUA-PULUH ILIR EMPAT                        </t>
+  </si>
+  <si>
+    <t>012B</t>
+  </si>
+  <si>
+    <t>252030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[001800] RT 015 RW 04                                                                                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILIR TIMUR DUA             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAWANGKIDUL                                 </t>
+  </si>
+  <si>
+    <t>252271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[000900] RT 010 RW 003                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMA ILIR                                   </t>
+  </si>
+  <si>
+    <t>015B</t>
+  </si>
+  <si>
+    <t>252448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[001600] RT 013 RW 003                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[001200] RT 019 RW 002, [001600] RT 013 RW 003                                                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KALIDONI                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KALIDONI                                    </t>
+  </si>
+  <si>
+    <t>252630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[003900] RT 033 RW 007                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILIR TIMUR TIGA            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUKU                                        </t>
+  </si>
+  <si>
+    <t>252821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[003800] RT 032 RW 006                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAKO                       </t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIALANG                                     </t>
+  </si>
+  <si>
+    <t>017B</t>
+  </si>
+  <si>
+    <t>253022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[005200] RT 046 RW 010, [005800] RT 053 RW 011                                                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[005200] RT 046 RW 010, [005700] RT 051 RW 011, [005800] RT 053 RW 011                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMATANGBORANG             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEBUNG-GAJAH                                </t>
+  </si>
+  <si>
+    <t>016B</t>
+  </si>
+  <si>
+    <t>253219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[002500] RT 023 RW 006                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUKARAMI                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUKAJAYA                                    </t>
+  </si>
+  <si>
+    <t>043B</t>
+  </si>
+  <si>
+    <t>253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[001200] RT 009 RW 002                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALANGBETUTU                                </t>
+  </si>
+  <si>
+    <t>026B</t>
+  </si>
+  <si>
+    <t>253648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[001800] RT 017 RW 006                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALANG-ALANG LEBAR          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALANGKELAPA                                </t>
+  </si>
+  <si>
+    <t>001B</t>
+  </si>
+  <si>
+    <t>253929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[002300] RT 019 RW 005                                                                                                                                                                                                                                        </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,16 +490,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -103,29 +566,291 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,84 +1164,1104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B7BAEE-DA4C-42A6-9AEC-CB959D241841}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D487E-9FED-4966-80A2-353022C16C78}">
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="7.42578125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="37" style="30" customWidth="1"/>
+    <col min="11" max="11" width="40.28515625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="30" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B9" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14" ht="12" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="19">
+        <v>49</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>2</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="26">
+        <v>109</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>3</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="26">
+        <v>79</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="26">
+        <v>150</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="26">
+        <v>85</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>6</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="26">
+        <v>35</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>7</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="26">
+        <v>75</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>8</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="26">
+        <v>52</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>9</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="26">
+        <v>54</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1601093001001</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1001</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="B19" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="26">
+        <v>79</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>11</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="26">
+        <v>57</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
         <v>12</v>
       </c>
-      <c r="H2" s="3">
-        <v>80</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
+      <c r="B21" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="26">
+        <v>76</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>13</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="26">
+        <v>53</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>14</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="26">
+        <v>115</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>15</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="26">
+        <v>82</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>16</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="26">
+        <v>121</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>17</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="26">
+        <v>127</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>18</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="26">
+        <v>120</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>19</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="26">
+        <v>112</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>20</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="26">
+        <v>77</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="F6:N7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>